--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3978766.094481649</v>
+        <v>3976878.512965246</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580165.1161366777</v>
+        <v>139016.0882895524</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7672227.268367485</v>
+        <v>7672227.268367486</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>19.87844664664855</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>266.4444139167484</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>182.1450596277182</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>49.51684472095685</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>246.0394658505826</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>81.22238207999715</v>
       </c>
       <c r="F8" t="n">
-        <v>310.2576191200749</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>123.8167699816756</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>162.9835080414692</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13.20203877768303</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>148.1596747322617</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>114.5140647174405</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.2541671901478</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9.90984473479773</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>183.1796758467006</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002177</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>37.0395242089695</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.2694668132209</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965537</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>36.6009285632888</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>99.03327386561014</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8148076117927</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C2" t="n">
-        <v>478.852290671381</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D2" t="n">
-        <v>478.852290671381</v>
+        <v>972.6467249281038</v>
       </c>
       <c r="E2" t="n">
-        <v>478.852290671381</v>
+        <v>972.6467249281038</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628376</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284805</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.553979651726</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.553979651726</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.414647675914</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2458.135492833849</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2105.366837563734</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1731.901079302655</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y5" t="n">
-        <v>1731.901079302655</v>
+        <v>941.2608351981287</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>920.5121489496503</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C8" t="n">
-        <v>920.5121489496503</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D8" t="n">
-        <v>920.5121489496503</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="E8" t="n">
-        <v>534.723896351406</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.111989013772</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>233.2506118890485</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>463.2137177573976</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.698165809328</v>
+        <v>783.5490372870994</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
-        <v>566.6879222525852</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X13" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>883.9240649760945</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1204.259384505796</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.6647764207316</v>
+        <v>260.669123577352</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207316</v>
+        <v>260.669123577352</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207316</v>
+        <v>110.5524841650162</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383385</v>
+        <v>110.5524841650162</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383385</v>
+        <v>110.5524841650162</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1349.260033454608</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>1060.131394668166</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V16" t="n">
-        <v>805.4469064622791</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="W16" t="n">
-        <v>805.4469064622791</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="X16" t="n">
-        <v>577.4573555642618</v>
+        <v>481.461702720882</v>
       </c>
       <c r="Y16" t="n">
-        <v>356.6647764207316</v>
+        <v>260.669123577352</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>999.2632410381165</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578673</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>493.3586382081044</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>324.4224552801974</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>324.4224552801974</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>324.4224552801974</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>324.4224552801974</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>324.4224552801974</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706319</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706319</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>675.0071030383441</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>458.9654706914334</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>423.3154508994216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>423.3154508994216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,7 +5908,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.10087974468</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.10087974468</v>
+        <v>898.7925182488385</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387937</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018332</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>423.3154508994216</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5984,7 +5984,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5993,7 +5993,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011504</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2246.75132785554</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,37 +6458,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6549,19 +6549,19 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163766</v>
+        <v>439.5324299542179</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698403</v>
+        <v>439.5324299542179</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388753</v>
+        <v>345.1766558232529</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264624</v>
+        <v>253.0244275222306</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>253.0244275222306</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818922</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652456</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652456</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2115.681725457454</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2364.435139541416</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6923,7 +6923,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>993.1218759632262</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,10 +7120,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,7 +7175,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>388.8958536704856</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M39" t="n">
-        <v>388.8958536704856</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N39" t="n">
-        <v>1193.307431934636</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.771193237296</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2383.071814973043</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7494,19 +7494,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7546,34 +7546,34 @@
         <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>257.9034457541596</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>314.8974328932119</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,10 +10680,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>288.9314785761249</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>366.5711815324391</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>123.5394902951218</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>153.2915296856945</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>73.38788632612756</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>34.39976365009566</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>14.45548819888936</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>138.7056282834146</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>14.7411341369026</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>184.5080368494197</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.25353152337013</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.62977745472338</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437426</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>12.2570379692104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.94856722</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671256.5266196958</v>
+        <v>671256.5266196959</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="I2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887492</v>
+        <v>752620.9540887488</v>
       </c>
       <c r="L2" t="n">
         <v>759463.6371244611</v>
       </c>
       <c r="M2" t="n">
+        <v>759463.637124461</v>
+      </c>
+      <c r="N2" t="n">
         <v>759463.6371244609</v>
       </c>
-      <c r="N2" t="n">
-        <v>759463.6371244608</v>
-      </c>
       <c r="O2" t="n">
-        <v>759463.6371244609</v>
+        <v>759463.637124461</v>
       </c>
       <c r="P2" t="n">
         <v>759463.6371244611</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905757947</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905757998</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758888</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905759237</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758412</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477233</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189633</v>
-      </c>
       <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411052</v>
+        <v>-52422.45933411067</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804338</v>
+        <v>537545.4198804336</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804338</v>
+        <v>537545.4198804337</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985725</v>
+        <v>105371.1452725999</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754686</v>
+        <v>630531.1817494964</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.640875469</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754685</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828757</v>
+        <v>454107.9625569035</v>
       </c>
       <c r="K6" t="n">
-        <v>592877.7240509086</v>
+        <v>592859.2303129736</v>
       </c>
       <c r="L6" t="n">
         <v>628199.0435716724</v>
       </c>
       <c r="M6" t="n">
-        <v>503740.9351387021</v>
+        <v>503740.935138702</v>
       </c>
       <c r="N6" t="n">
-        <v>638541.950372539</v>
+        <v>638541.9503725391</v>
       </c>
       <c r="O6" t="n">
-        <v>638541.9503725391</v>
+        <v>638541.9503725392</v>
       </c>
       <c r="P6" t="n">
         <v>594379.3450696938</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,25 +26741,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108368</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>386.9975990950629</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>82.79655480066458</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>134.9863473781468</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>145.6071988424168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7210939350967</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>6.098177473245357</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>300.7079879922646</v>
       </c>
       <c r="F8" t="n">
-        <v>96.61842662163656</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.60427804125561</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.648459146963432e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31385,19 +31385,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>10.78379835446987</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>119.4431162246989</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>147.326867477724</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>384.2467489891734</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>70.77739093025028</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32570,16 +32570,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,31 +32792,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>402.5502652134396</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,34 +33026,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,22 +33269,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>100.5826050876807</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33658,7 +33658,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>222.4735343909617</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33895,7 +33895,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -33977,13 +33977,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,7 +33992,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>162.0981008004707</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34220,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,16 +34229,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34451,31 +34451,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>187.7071465097794</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.4075963926895</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>443.0141460526805</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>379.612833001309</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>616.5327145127584</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>197.4011889684699</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36288,7 +36288,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>653.8163400457247</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>115.3072013097152</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>351.8486799199658</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>180.9230254788817</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>546.0445642189433</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37622,16 +37622,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>157.5897664927916</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178377</v>
@@ -37640,7 +37640,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.1936144502983</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>224.4371476104208</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>535.7078087699996</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
